--- a/output/piaseczno/2021/sheets/year_2021.xlsx
+++ b/output/piaseczno/2021/sheets/year_2021.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>21.59032258064516</v>
+        <v>38.98684349202774</v>
       </c>
       <c r="C2" t="n">
-        <v>11.82258064516129</v>
+        <v>34.60279345260346</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>13.65357142857143</v>
+        <v>32.6511427591185</v>
       </c>
       <c r="C3" t="n">
-        <v>12.04642857142857</v>
+        <v>37.87581760607224</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>14.59354838709677</v>
+        <v>38.49297466286625</v>
       </c>
       <c r="C4" t="n">
-        <v>18.74516129032258</v>
+        <v>35.87287730180658</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>29.83666666666667</v>
+        <v>36.86638143862368</v>
       </c>
       <c r="C5" t="n">
-        <v>27.97333333333334</v>
+        <v>37.21941641972897</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>32.95806451612903</v>
+        <v>39.12803787863236</v>
       </c>
       <c r="C6" t="n">
-        <v>26.04193548387097</v>
+        <v>37.94223394878399</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>38.89</v>
+        <v>41.22849580284813</v>
       </c>
       <c r="C7" t="n">
-        <v>36.14666666666666</v>
+        <v>41.03839358924644</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>35.98064516129032</v>
+        <v>43.01799280281989</v>
       </c>
       <c r="C8" t="n">
-        <v>38.28064516129032</v>
+        <v>41.59359511982452</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34.91612903225806</v>
+        <v>42.66170380604077</v>
       </c>
       <c r="C9" t="n">
-        <v>37.64516129032259</v>
+        <v>42.31725184822426</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>38.28666666666667</v>
+        <v>42.69162641536326</v>
       </c>
       <c r="C10" t="n">
-        <v>33.13666666666667</v>
+        <v>41.521293163446</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>37.48064516129032</v>
+        <v>41.85992452778261</v>
       </c>
       <c r="C11" t="n">
-        <v>34.74838709677419</v>
+        <v>40.98712460442682</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>28.44666666666667</v>
+        <v>39.25310649862955</v>
       </c>
       <c r="C12" t="n">
-        <v>32.04</v>
+        <v>39.96501055952304</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.54838709677419</v>
+        <v>39.62451773721119</v>
       </c>
       <c r="C13" t="n">
-        <v>31.58064516129032</v>
+        <v>40.02931196275576</v>
       </c>
     </row>
   </sheetData>
